--- a/cache/4172ea6e-6b77-4edb-a9cc-c0014bd1603b/MaturityDate.xlsx
+++ b/cache/4172ea6e-6b77-4edb-a9cc-c0014bd1603b/MaturityDate.xlsx
@@ -139,7 +139,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C9"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,6 +262,10 @@
       <c r="B10" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">A10+B10</f>
+        <v>40506</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/cache/4172ea6e-6b77-4edb-a9cc-c0014bd1603b/MaturityDate.xlsx
+++ b/cache/4172ea6e-6b77-4edb-a9cc-c0014bd1603b/MaturityDate.xlsx
@@ -136,10 +136,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C10"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -267,6 +267,12 @@
         <v>40506</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="n">
+        <f aca="false">A11+B11</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
